--- a/src/test/resources/TestData/DataExcel.xlsx
+++ b/src/test/resources/TestData/DataExcel.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tusha\eclipse-workspace\eclipseworkspace5\Team15_API_Analysers_RestAssured_BDD\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4AF7AB-D9A3-47E4-B784-62DD67FA254C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93CCA55-43E1-472F-84E7-E8380C37B55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllDieticianLogins" sheetId="1" r:id="rId1"/>
     <sheet name="AllPatientsLogins" sheetId="2" r:id="rId2"/>
     <sheet name="PostPatients" sheetId="3" r:id="rId3"/>
-    <sheet name="PutPatients" sheetId="4" r:id="rId4"/>
+    <sheet name="Morbidity" sheetId="6" r:id="rId4"/>
+    <sheet name="PutPatients" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>prichaseofc@gmail.com</t>
   </si>
@@ -79,12 +80,45 @@
   <si>
     <t>Brooke@gmail.com</t>
   </si>
+  <si>
+    <t xml:space="preserve">Fasting Glucose </t>
+  </si>
+  <si>
+    <t>Average Glucose</t>
+  </si>
+  <si>
+    <t>Plasma Glucose</t>
+  </si>
+  <si>
+    <t>HBA1C</t>
+  </si>
+  <si>
+    <t>morbidityName</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>{
+  "FirstName": "Brooke",
+  "LastName": "Smith",
+  "ContactNumber": "6024503333",
+  "Email": "Brooke@gmail.com",
+  "Allergy": "Egg",
+  "FoodCategory": "Vegetarian",
+  "DateOfBirth": "2010-05-12"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.update allergy=Egg
+2. PatientInfoValue=Diabetes </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -95,23 +129,33 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -151,9 +195,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +433,7 @@
   <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -490,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CA7C2D-52B0-46A4-AE64-36ACB773EA6B}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -509,7 +567,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -525,7 +583,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4B48CC-153B-449E-8FE3-387A5979D19D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -545,7 +605,7 @@
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -555,15 +615,186 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43E6164-CB72-438C-B1B9-9F7E6AA6A869}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BF7DD8-BABD-4696-BEEC-667DCF6F433A}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43E6164-CB72-438C-B1B9-9F7E6AA6A869}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="2" max="2" width="75.77734375" customWidth="1"/>
+    <col min="3" max="3" width="55.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>